--- a/Personal_Finances.xlsx
+++ b/Personal_Finances.xlsx
@@ -553,10 +553,10 @@
         <v>2895.126652697997</v>
       </c>
       <c r="F5">
-        <v>6256.25</v>
+        <v>6311.458121275088</v>
       </c>
       <c r="G5">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="H5">
         <v>3000</v>
@@ -568,7 +568,7 @@
         <v>12960</v>
       </c>
       <c r="K5">
-        <v>44414.65739238213</v>
+        <v>44769.86551365722</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -686,19 +686,19 @@
         <v>27</v>
       </c>
       <c r="U8">
-        <v>6256.25</v>
+        <v>6311.458121275088</v>
       </c>
       <c r="V8">
-        <v>48125</v>
+        <v>52177.49745530105</v>
       </c>
       <c r="W8">
-        <v>26950</v>
+        <v>23560</v>
       </c>
       <c r="X8">
-        <v>75075</v>
+        <v>75737.49745530105</v>
       </c>
       <c r="Y8">
-        <v>721875</v>
+        <v>707822.502544699</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -751,19 +751,19 @@
         <v>28</v>
       </c>
       <c r="U9">
-        <v>6115.885416666667</v>
+        <v>6311.458121275088</v>
       </c>
       <c r="V9">
-        <v>48125</v>
+        <v>53794.99987641539</v>
       </c>
       <c r="W9">
-        <v>25265.625</v>
+        <v>21942.49757888567</v>
       </c>
       <c r="X9">
-        <v>73390.625</v>
+        <v>75737.49745530105</v>
       </c>
       <c r="Y9">
-        <v>673750</v>
+        <v>654027.5026682836</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -816,19 +816,19 @@
         <v>29</v>
       </c>
       <c r="U10">
-        <v>5975.520833333333</v>
+        <v>6311.458121275088</v>
       </c>
       <c r="V10">
-        <v>48125</v>
+        <v>55462.64487258426</v>
       </c>
       <c r="W10">
-        <v>23581.25</v>
+        <v>20274.85258271679</v>
       </c>
       <c r="X10">
-        <v>71706.25</v>
+        <v>75737.49745530105</v>
       </c>
       <c r="Y10">
-        <v>625625</v>
+        <v>598564.8577956994</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -881,19 +881,19 @@
         <v>30</v>
       </c>
       <c r="U11">
-        <v>5835.15625</v>
+        <v>6311.458121275088</v>
       </c>
       <c r="V11">
-        <v>48125</v>
+        <v>57181.98686363437</v>
       </c>
       <c r="W11">
-        <v>21896.875</v>
+        <v>18555.51059166668</v>
       </c>
       <c r="X11">
-        <v>70021.875</v>
+        <v>75737.49745530105</v>
       </c>
       <c r="Y11">
-        <v>577500</v>
+        <v>541382.870932065</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -946,19 +946,19 @@
         <v>31</v>
       </c>
       <c r="U12">
-        <v>5694.791666666667</v>
+        <v>6311.458121275088</v>
       </c>
       <c r="V12">
-        <v>48125</v>
+        <v>58954.62845640704</v>
       </c>
       <c r="W12">
-        <v>20212.5</v>
+        <v>16782.86899889401</v>
       </c>
       <c r="X12">
-        <v>68337.5</v>
+        <v>75737.49745530105</v>
       </c>
       <c r="Y12">
-        <v>529375</v>
+        <v>482428.2424756579</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1011,19 +1011,19 @@
         <v>32</v>
       </c>
       <c r="U13">
-        <v>5554.427083333333</v>
+        <v>6311.458121275088</v>
       </c>
       <c r="V13">
-        <v>48125</v>
+        <v>60782.22193855566</v>
       </c>
       <c r="W13">
-        <v>18528.125</v>
+        <v>14955.27551674539</v>
       </c>
       <c r="X13">
-        <v>66653.125</v>
+        <v>75737.49745530105</v>
       </c>
       <c r="Y13">
-        <v>481250</v>
+        <v>421646.0205371022</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1076,19 +1076,19 @@
         <v>33</v>
       </c>
       <c r="U14">
-        <v>5414.0625</v>
+        <v>6311.458121275088</v>
       </c>
       <c r="V14">
-        <v>48125</v>
+        <v>62666.47081865089</v>
       </c>
       <c r="W14">
-        <v>16843.75</v>
+        <v>13071.02663665017</v>
       </c>
       <c r="X14">
-        <v>64968.75</v>
+        <v>75737.49745530105</v>
       </c>
       <c r="Y14">
-        <v>433125</v>
+        <v>358979.5497184513</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1141,19 +1141,19 @@
         <v>34</v>
       </c>
       <c r="U15">
-        <v>5273.697916666667</v>
+        <v>6311.458121275088</v>
       </c>
       <c r="V15">
-        <v>48125</v>
+        <v>64609.13141402906</v>
       </c>
       <c r="W15">
-        <v>15159.375</v>
+        <v>11128.36604127199</v>
       </c>
       <c r="X15">
-        <v>63284.375</v>
+        <v>75737.49745530105</v>
       </c>
       <c r="Y15">
-        <v>385000</v>
+        <v>294370.4183044223</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1206,19 +1206,19 @@
         <v>35</v>
       </c>
       <c r="U16">
-        <v>5133.333333333333</v>
+        <v>6311.458121275088</v>
       </c>
       <c r="V16">
-        <v>48125</v>
+        <v>66612.01448786397</v>
       </c>
       <c r="W16">
-        <v>13475</v>
+        <v>9125.48296743709</v>
       </c>
       <c r="X16">
-        <v>61600</v>
+        <v>75737.49745530105</v>
       </c>
       <c r="Y16">
-        <v>336875</v>
+        <v>227758.4038165583</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1271,19 +1271,19 @@
         <v>36</v>
       </c>
       <c r="U17">
-        <v>4992.96875</v>
+        <v>6311.458121275088</v>
       </c>
       <c r="V17">
-        <v>48125</v>
+        <v>68676.98693698774</v>
       </c>
       <c r="W17">
-        <v>11790.625</v>
+        <v>7060.510518313307</v>
       </c>
       <c r="X17">
-        <v>59915.625</v>
+        <v>75737.49745530105</v>
       </c>
       <c r="Y17">
-        <v>288750</v>
+        <v>159081.4168795706</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1336,19 +1336,19 @@
         <v>37</v>
       </c>
       <c r="U18">
-        <v>4852.604166666667</v>
+        <v>6311.458121275088</v>
       </c>
       <c r="V18">
-        <v>48125</v>
+        <v>70805.97353203436</v>
       </c>
       <c r="W18">
-        <v>10106.25</v>
+        <v>4931.523923266688</v>
       </c>
       <c r="X18">
-        <v>58231.25</v>
+        <v>75737.49745530105</v>
       </c>
       <c r="Y18">
-        <v>240625</v>
+        <v>88275.44334753622</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1401,19 +1401,19 @@
         <v>38</v>
       </c>
       <c r="U19">
-        <v>4712.239583333333</v>
+        <v>6311.458121275088</v>
       </c>
       <c r="V19">
-        <v>48125</v>
+        <v>73000.95871152743</v>
       </c>
       <c r="W19">
-        <v>8421.875</v>
+        <v>2736.538743773623</v>
       </c>
       <c r="X19">
-        <v>56546.875</v>
+        <v>75737.49745530105</v>
       </c>
       <c r="Y19">
-        <v>192500</v>
+        <v>15274.48463600878</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1459,26 +1459,17 @@
       <c r="P20">
         <v>220163.9091882167</v>
       </c>
-      <c r="S20" s="1">
-        <v>2035</v>
-      </c>
-      <c r="T20">
-        <v>39</v>
-      </c>
-      <c r="U20">
-        <v>4571.875</v>
+      <c r="S20" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="V20">
-        <v>48125</v>
+        <v>744725.5153639911</v>
       </c>
       <c r="W20">
-        <v>6737.500000000001</v>
+        <v>164124.4540996214</v>
       </c>
       <c r="X20">
-        <v>54862.5</v>
-      </c>
-      <c r="Y20">
-        <v>144375</v>
+        <v>908849.9694636124</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -1524,27 +1515,6 @@
       <c r="P21">
         <v>195990.2569968752</v>
       </c>
-      <c r="S21" s="1">
-        <v>2036</v>
-      </c>
-      <c r="T21">
-        <v>40</v>
-      </c>
-      <c r="U21">
-        <v>4431.510416666667</v>
-      </c>
-      <c r="V21">
-        <v>48125</v>
-      </c>
-      <c r="W21">
-        <v>5053.125000000001</v>
-      </c>
-      <c r="X21">
-        <v>53178.125</v>
-      </c>
-      <c r="Y21">
-        <v>96250</v>
-      </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="1">
@@ -1589,27 +1559,6 @@
       <c r="P22">
         <v>170656.2695003492</v>
       </c>
-      <c r="S22" s="1">
-        <v>2037</v>
-      </c>
-      <c r="T22">
-        <v>41</v>
-      </c>
-      <c r="U22">
-        <v>4291.145833333333</v>
-      </c>
-      <c r="V22">
-        <v>48125</v>
-      </c>
-      <c r="W22">
-        <v>3368.75</v>
-      </c>
-      <c r="X22">
-        <v>51493.75</v>
-      </c>
-      <c r="Y22">
-        <v>48125</v>
-      </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="1">
@@ -1654,27 +1603,6 @@
       <c r="P23">
         <v>144106.25060399</v>
       </c>
-      <c r="S23" s="1">
-        <v>2038</v>
-      </c>
-      <c r="T23">
-        <v>42</v>
-      </c>
-      <c r="U23">
-        <v>4150.78125</v>
-      </c>
-      <c r="V23">
-        <v>48125</v>
-      </c>
-      <c r="W23">
-        <v>1684.375</v>
-      </c>
-      <c r="X23">
-        <v>49809.375</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="1">
@@ -1718,18 +1646,6 @@
       </c>
       <c r="P24">
         <v>116281.8308006056</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V24">
-        <v>770000</v>
-      </c>
-      <c r="W24">
-        <v>229075</v>
-      </c>
-      <c r="X24">
-        <v>999075</v>
       </c>
     </row>
     <row r="25" spans="1:25">

--- a/Personal_Finances.xlsx
+++ b/Personal_Finances.xlsx
@@ -553,22 +553,22 @@
         <v>2895.126652697997</v>
       </c>
       <c r="F5">
-        <v>6311.458121275088</v>
+        <v>6394.503622870813</v>
       </c>
       <c r="G5">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="H5">
         <v>3000</v>
       </c>
       <c r="I5">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="J5">
         <v>12960</v>
       </c>
       <c r="K5">
-        <v>44769.86551365722</v>
+        <v>45252.91101525295</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -686,19 +686,19 @@
         <v>27</v>
       </c>
       <c r="U8">
-        <v>6311.458121275088</v>
+        <v>6394.503622870813</v>
       </c>
       <c r="V8">
-        <v>52177.49745530105</v>
+        <v>52864.04347444976</v>
       </c>
       <c r="W8">
-        <v>23560</v>
+        <v>23870</v>
       </c>
       <c r="X8">
-        <v>75737.49745530105</v>
+        <v>76734.04347444976</v>
       </c>
       <c r="Y8">
-        <v>707822.502544699</v>
+        <v>717135.9565255502</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -751,19 +751,19 @@
         <v>28</v>
       </c>
       <c r="U9">
-        <v>6311.458121275088</v>
+        <v>6394.503622870813</v>
       </c>
       <c r="V9">
-        <v>53794.99987641539</v>
+        <v>54502.82882215771</v>
       </c>
       <c r="W9">
-        <v>21942.49757888567</v>
+        <v>22231.21465229206</v>
       </c>
       <c r="X9">
-        <v>75737.49745530105</v>
+        <v>76734.04347444976</v>
       </c>
       <c r="Y9">
-        <v>654027.5026682836</v>
+        <v>662633.1277033925</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -816,19 +816,19 @@
         <v>29</v>
       </c>
       <c r="U10">
-        <v>6311.458121275088</v>
+        <v>6394.503622870813</v>
       </c>
       <c r="V10">
-        <v>55462.64487258426</v>
+        <v>56192.4165156446</v>
       </c>
       <c r="W10">
-        <v>20274.85258271679</v>
+        <v>20541.62695880517</v>
       </c>
       <c r="X10">
-        <v>75737.49745530105</v>
+        <v>76734.04347444976</v>
       </c>
       <c r="Y10">
-        <v>598564.8577956994</v>
+        <v>606440.7111877479</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -881,19 +881,19 @@
         <v>30</v>
       </c>
       <c r="U11">
-        <v>6311.458121275088</v>
+        <v>6394.503622870813</v>
       </c>
       <c r="V11">
-        <v>57181.98686363437</v>
+        <v>57934.38142762957</v>
       </c>
       <c r="W11">
-        <v>18555.51059166668</v>
+        <v>18799.66204682018</v>
       </c>
       <c r="X11">
-        <v>75737.49745530105</v>
+        <v>76734.04347444976</v>
       </c>
       <c r="Y11">
-        <v>541382.870932065</v>
+        <v>548506.3297601183</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -946,19 +946,19 @@
         <v>31</v>
       </c>
       <c r="U12">
-        <v>6311.458121275088</v>
+        <v>6394.503622870813</v>
       </c>
       <c r="V12">
-        <v>58954.62845640704</v>
+        <v>59730.34725188609</v>
       </c>
       <c r="W12">
-        <v>16782.86899889401</v>
+        <v>17003.69622256367</v>
       </c>
       <c r="X12">
-        <v>75737.49745530105</v>
+        <v>76734.04347444976</v>
       </c>
       <c r="Y12">
-        <v>482428.2424756579</v>
+        <v>488775.9825082322</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1011,19 +1011,19 @@
         <v>32</v>
       </c>
       <c r="U13">
-        <v>6311.458121275088</v>
+        <v>6394.503622870813</v>
       </c>
       <c r="V13">
-        <v>60782.22193855566</v>
+        <v>61581.98801669457</v>
       </c>
       <c r="W13">
-        <v>14955.27551674539</v>
+        <v>15152.0554577552</v>
       </c>
       <c r="X13">
-        <v>75737.49745530105</v>
+        <v>76734.04347444976</v>
       </c>
       <c r="Y13">
-        <v>421646.0205371022</v>
+        <v>427193.9944915376</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1076,19 +1076,19 @@
         <v>33</v>
       </c>
       <c r="U14">
-        <v>6311.458121275088</v>
+        <v>6394.503622870813</v>
       </c>
       <c r="V14">
-        <v>62666.47081865089</v>
+        <v>63491.0296452121</v>
       </c>
       <c r="W14">
-        <v>13071.02663665017</v>
+        <v>13243.01382923767</v>
       </c>
       <c r="X14">
-        <v>75737.49745530105</v>
+        <v>76734.04347444976</v>
       </c>
       <c r="Y14">
-        <v>358979.5497184513</v>
+        <v>363702.9648463255</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1141,19 +1141,19 @@
         <v>34</v>
       </c>
       <c r="U15">
-        <v>6311.458121275088</v>
+        <v>6394.503622870813</v>
       </c>
       <c r="V15">
-        <v>64609.13141402906</v>
+        <v>65459.25156421367</v>
       </c>
       <c r="W15">
-        <v>11128.36604127199</v>
+        <v>11274.79191023609</v>
       </c>
       <c r="X15">
-        <v>75737.49745530105</v>
+        <v>76734.04347444976</v>
       </c>
       <c r="Y15">
-        <v>294370.4183044223</v>
+        <v>298243.7132821119</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1206,19 +1206,19 @@
         <v>35</v>
       </c>
       <c r="U16">
-        <v>6311.458121275088</v>
+        <v>6394.503622870813</v>
       </c>
       <c r="V16">
-        <v>66612.01448786397</v>
+        <v>67488.48836270429</v>
       </c>
       <c r="W16">
-        <v>9125.48296743709</v>
+        <v>9245.555111745467</v>
       </c>
       <c r="X16">
-        <v>75737.49745530105</v>
+        <v>76734.04347444976</v>
       </c>
       <c r="Y16">
-        <v>227758.4038165583</v>
+        <v>230755.2249194076</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1271,19 +1271,19 @@
         <v>36</v>
       </c>
       <c r="U17">
-        <v>6311.458121275088</v>
+        <v>6394.503622870813</v>
       </c>
       <c r="V17">
-        <v>68676.98693698774</v>
+        <v>69580.63150194813</v>
       </c>
       <c r="W17">
-        <v>7060.510518313307</v>
+        <v>7153.411972501634</v>
       </c>
       <c r="X17">
-        <v>75737.49745530105</v>
+        <v>76734.04347444976</v>
       </c>
       <c r="Y17">
-        <v>159081.4168795706</v>
+        <v>161174.5934174595</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1336,19 +1336,19 @@
         <v>37</v>
       </c>
       <c r="U18">
-        <v>6311.458121275088</v>
+        <v>6394.503622870813</v>
       </c>
       <c r="V18">
-        <v>70805.97353203436</v>
+        <v>71737.63107850852</v>
       </c>
       <c r="W18">
-        <v>4931.523923266688</v>
+        <v>4996.412395941244</v>
       </c>
       <c r="X18">
-        <v>75737.49745530105</v>
+        <v>76734.04347444976</v>
       </c>
       <c r="Y18">
-        <v>88275.44334753622</v>
+        <v>89436.96233895094</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1401,19 +1401,19 @@
         <v>38</v>
       </c>
       <c r="U19">
-        <v>6311.458121275088</v>
+        <v>6394.503622870813</v>
       </c>
       <c r="V19">
-        <v>73000.95871152743</v>
+        <v>73961.49764194229</v>
       </c>
       <c r="W19">
-        <v>2736.538743773623</v>
+        <v>2772.545832507479</v>
       </c>
       <c r="X19">
-        <v>75737.49745530105</v>
+        <v>76734.04347444976</v>
       </c>
       <c r="Y19">
-        <v>15274.48463600878</v>
+        <v>15475.46469700865</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1463,13 +1463,13 @@
         <v>23</v>
       </c>
       <c r="V20">
-        <v>744725.5153639911</v>
+        <v>754524.5353029913</v>
       </c>
       <c r="W20">
-        <v>164124.4540996214</v>
+        <v>166283.9863904058</v>
       </c>
       <c r="X20">
-        <v>908849.9694636124</v>
+        <v>920808.5216933972</v>
       </c>
     </row>
     <row r="21" spans="1:25">

--- a/Personal_Finances.xlsx
+++ b/Personal_Finances.xlsx
@@ -37,7 +37,7 @@
     <t>Monthly Budget</t>
   </si>
   <si>
-    <t>December</t>
+    <t>June</t>
   </si>
   <si>
     <t>Housing</t>
@@ -46,7 +46,7 @@
     <t>Student Loan</t>
   </si>
   <si>
-    <t>Other Debt</t>
+    <t>Shared Loan</t>
   </si>
   <si>
     <t>Shared Costs</t>
@@ -91,7 +91,7 @@
     <t>Residual Loan of Student Loan</t>
   </si>
   <si>
-    <t>Residual Loan of Other Debt</t>
+    <t>Residual Loan of Shared Loan</t>
   </si>
 </sst>
 </file>
@@ -483,22 +483,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>36000</v>
+        <v>39049.18754553597</v>
       </c>
       <c r="C2">
         <v>9000</v>
       </c>
       <c r="D2">
-        <v>30240</v>
+        <v>29305.5775236787</v>
       </c>
       <c r="E2">
-        <v>1800</v>
+        <v>3904.918754553597</v>
       </c>
       <c r="F2">
-        <v>12960</v>
+        <v>14838.69126730367</v>
       </c>
       <c r="G2">
-        <v>45000</v>
+        <v>48049.18754553597</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -541,34 +541,34 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>36000</v>
+        <v>39049.18754553597</v>
       </c>
       <c r="C5">
         <v>9000</v>
       </c>
       <c r="D5">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="E5">
-        <v>2895.126652697997</v>
+        <v>3123.085854615022</v>
       </c>
       <c r="F5">
         <v>6394.503622870813</v>
       </c>
       <c r="G5">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="H5">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="I5">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="J5">
-        <v>12960</v>
+        <v>14984.9086011845</v>
       </c>
       <c r="K5">
-        <v>45252.91101525295</v>
+        <v>48049.18754553597</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -644,40 +644,40 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D8">
-        <v>47314.3688762096</v>
+        <v>15228.42453412918</v>
       </c>
       <c r="E8">
-        <v>94325</v>
+        <v>32958.33333333333</v>
       </c>
       <c r="F8">
-        <v>141639.3688762096</v>
+        <v>48186.7578674625</v>
       </c>
       <c r="G8">
-        <v>1702685.631123791</v>
+        <v>1730771.575465871</v>
       </c>
       <c r="J8" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L8">
-        <v>2895.126652697997</v>
+        <v>3123.085854615022</v>
       </c>
       <c r="M8">
-        <v>13141.51983237596</v>
+        <v>12311.41106743191</v>
       </c>
       <c r="N8">
-        <v>21600</v>
+        <v>22042.53333333333</v>
       </c>
       <c r="O8">
-        <v>34741.51983237596</v>
+        <v>34353.94440076523</v>
       </c>
       <c r="P8">
-        <v>436858.480167624</v>
+        <v>428688.5889325681</v>
       </c>
       <c r="S8" s="1">
         <v>2023</v>
@@ -689,16 +689,16 @@
         <v>6394.503622870813</v>
       </c>
       <c r="V8">
-        <v>52864.04347444976</v>
+        <v>17621.34782481658</v>
       </c>
       <c r="W8">
-        <v>23870</v>
+        <v>7956.666666666666</v>
       </c>
       <c r="X8">
-        <v>76734.04347444976</v>
+        <v>25578.01449148325</v>
       </c>
       <c r="Y8">
-        <v>717135.9565255502</v>
+        <v>752378.6521751834</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -709,40 +709,40 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D9">
-        <v>49864.61335863729</v>
+        <v>46771.67958856582</v>
       </c>
       <c r="E9">
-        <v>91774.75551757231</v>
+        <v>97788.5940138217</v>
       </c>
       <c r="F9">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G9">
-        <v>1652821.017765153</v>
+        <v>1671999.895877305</v>
       </c>
       <c r="J9" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="K9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L9">
-        <v>2895.126652697997</v>
+        <v>3123.085854615022</v>
       </c>
       <c r="M9">
-        <v>13772.31278433001</v>
+        <v>14670.79732416764</v>
       </c>
       <c r="N9">
-        <v>20969.20704804595</v>
+        <v>22806.23293121262</v>
       </c>
       <c r="O9">
-        <v>34741.51983237596</v>
+        <v>37477.03025538026</v>
       </c>
       <c r="P9">
-        <v>423086.167383294</v>
+        <v>402017.7916084005</v>
       </c>
       <c r="S9" s="1">
         <v>2024</v>
@@ -754,16 +754,16 @@
         <v>6394.503622870813</v>
       </c>
       <c r="V9">
-        <v>54502.82882215771</v>
+        <v>53410.30525701908</v>
       </c>
       <c r="W9">
-        <v>22231.21465229206</v>
+        <v>23323.73821743068</v>
       </c>
       <c r="X9">
         <v>76734.04347444976</v>
       </c>
       <c r="Y9">
-        <v>662633.1277033925</v>
+        <v>698968.3469181643</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -774,40 +774,40 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D10">
-        <v>52552.31601866783</v>
+        <v>50092.27948531978</v>
       </c>
       <c r="E10">
-        <v>89087.05285754177</v>
+        <v>94467.99411706773</v>
       </c>
       <c r="F10">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G10">
-        <v>1600268.701746485</v>
+        <v>1609907.616391985</v>
       </c>
       <c r="J10" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="K10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L10">
-        <v>2895.126652697997</v>
+        <v>3123.085854615022</v>
       </c>
       <c r="M10">
-        <v>14433.38379797785</v>
+        <v>16089.68374181336</v>
       </c>
       <c r="N10">
-        <v>20308.13603439811</v>
+        <v>21387.3465135669</v>
       </c>
       <c r="O10">
-        <v>34741.51983237596</v>
+        <v>37477.03025538026</v>
       </c>
       <c r="P10">
-        <v>408652.7835853162</v>
+        <v>373928.1078665871</v>
       </c>
       <c r="S10" s="1">
         <v>2025</v>
@@ -819,16 +819,16 @@
         <v>6394.503622870813</v>
       </c>
       <c r="V10">
-        <v>56192.4165156446</v>
+        <v>55066.02471998667</v>
       </c>
       <c r="W10">
-        <v>20541.62695880517</v>
+        <v>21668.01875446309</v>
       </c>
       <c r="X10">
         <v>76734.04347444976</v>
       </c>
       <c r="Y10">
-        <v>606440.7111877479</v>
+        <v>643902.3221981776</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -839,40 +839,40 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D11">
-        <v>55384.88585207403</v>
+        <v>53600.49327624035</v>
       </c>
       <c r="E11">
-        <v>86254.48302413557</v>
+        <v>90959.78032614717</v>
       </c>
       <c r="F11">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G11">
-        <v>1544883.815894411</v>
+        <v>1544307.123115745</v>
       </c>
       <c r="J11" s="1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="K11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L11">
-        <v>2895.126652697997</v>
+        <v>3123.085854615022</v>
       </c>
       <c r="M11">
-        <v>15126.18622028079</v>
+        <v>17584.05491687783</v>
       </c>
       <c r="N11">
-        <v>19615.33361209518</v>
+        <v>19892.97533850243</v>
       </c>
       <c r="O11">
-        <v>34741.51983237596</v>
+        <v>37477.03025538026</v>
       </c>
       <c r="P11">
-        <v>393526.5973650354</v>
+        <v>344344.0529497093</v>
       </c>
       <c r="S11" s="1">
         <v>2026</v>
@@ -884,16 +884,16 @@
         <v>6394.503622870813</v>
       </c>
       <c r="V11">
-        <v>57934.38142762957</v>
+        <v>56773.07148630626</v>
       </c>
       <c r="W11">
-        <v>18799.66204682018</v>
+        <v>19960.9719881435</v>
       </c>
       <c r="X11">
         <v>76734.04347444976</v>
       </c>
       <c r="Y11">
-        <v>548506.3297601183</v>
+        <v>587129.2507118713</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -904,40 +904,40 @@
         <v>31</v>
       </c>
       <c r="C12">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D12">
-        <v>58370.13119950081</v>
+        <v>57306.92114634793</v>
       </c>
       <c r="E12">
-        <v>83269.23767670878</v>
+        <v>87253.35245603959</v>
       </c>
       <c r="F12">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G12">
-        <v>1486513.684694911</v>
+        <v>1475000.201969397</v>
       </c>
       <c r="J12" s="1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="K12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L12">
-        <v>2895.126652697997</v>
+        <v>3123.085854615022</v>
       </c>
       <c r="M12">
-        <v>15852.24315885426</v>
+        <v>19157.92663845573</v>
       </c>
       <c r="N12">
-        <v>18889.2766735217</v>
+        <v>18319.10361692453</v>
       </c>
       <c r="O12">
-        <v>34741.51983237596</v>
+        <v>37477.03025538026</v>
       </c>
       <c r="P12">
-        <v>377674.3542061811</v>
+        <v>313186.1263112536</v>
       </c>
       <c r="S12" s="1">
         <v>2027</v>
@@ -949,16 +949,16 @@
         <v>6394.503622870813</v>
       </c>
       <c r="V12">
-        <v>59730.34725188609</v>
+        <v>58533.03670238175</v>
       </c>
       <c r="W12">
-        <v>17003.69622256367</v>
+        <v>18201.00677206801</v>
       </c>
       <c r="X12">
         <v>76734.04347444976</v>
       </c>
       <c r="Y12">
-        <v>488775.9825082322</v>
+        <v>528596.2140094895</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -969,40 +969,40 @@
         <v>32</v>
       </c>
       <c r="C13">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D13">
-        <v>61516.28127115392</v>
+        <v>61222.76219111659</v>
       </c>
       <c r="E13">
-        <v>80123.08760505568</v>
+        <v>83337.51141127093</v>
       </c>
       <c r="F13">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G13">
-        <v>1424997.403423757</v>
+        <v>1401777.43977828</v>
       </c>
       <c r="J13" s="1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="K13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L13">
-        <v>2895.126652697997</v>
+        <v>3123.085854615022</v>
       </c>
       <c r="M13">
-        <v>16613.15083047927</v>
+        <v>20815.52833562157</v>
       </c>
       <c r="N13">
-        <v>18128.3690018967</v>
+        <v>16661.50191975869</v>
       </c>
       <c r="O13">
-        <v>34741.51983237596</v>
+        <v>37477.03025538026</v>
       </c>
       <c r="P13">
-        <v>361061.2033757019</v>
+        <v>280370.597975632</v>
       </c>
       <c r="S13" s="1">
         <v>2028</v>
@@ -1014,16 +1014,16 @@
         <v>6394.503622870813</v>
       </c>
       <c r="V13">
-        <v>61581.98801669457</v>
+        <v>60347.56084015559</v>
       </c>
       <c r="W13">
-        <v>15152.0554577552</v>
+        <v>16386.48263429417</v>
       </c>
       <c r="X13">
         <v>76734.04347444976</v>
       </c>
       <c r="Y13">
-        <v>427193.9944915376</v>
+        <v>468248.6531693339</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1034,40 +1034,40 @@
         <v>33</v>
       </c>
       <c r="C14">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D14">
-        <v>64832.0088316691</v>
+        <v>65359.84825491467</v>
       </c>
       <c r="E14">
-        <v>76807.3600445405</v>
+        <v>79200.42534747285</v>
       </c>
       <c r="F14">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G14">
-        <v>1360165.394592088</v>
+        <v>1324417.591523366</v>
       </c>
       <c r="J14" s="1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="K14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L14">
-        <v>2895.126652697997</v>
+        <v>3123.085854615022</v>
       </c>
       <c r="M14">
-        <v>17410.58207034227</v>
+        <v>22561.31444307664</v>
       </c>
       <c r="N14">
-        <v>17330.93776203369</v>
+        <v>14915.71581230362</v>
       </c>
       <c r="O14">
-        <v>34741.51983237596</v>
+        <v>37477.03025538026</v>
       </c>
       <c r="P14">
-        <v>343650.6213053596</v>
+        <v>245809.2835325554</v>
       </c>
       <c r="S14" s="1">
         <v>2029</v>
@@ -1079,16 +1079,16 @@
         <v>6394.503622870813</v>
       </c>
       <c r="V14">
-        <v>63491.0296452121</v>
+        <v>62218.33522620041</v>
       </c>
       <c r="W14">
-        <v>13243.01382923767</v>
+        <v>14515.70824824935</v>
       </c>
       <c r="X14">
         <v>76734.04347444976</v>
       </c>
       <c r="Y14">
-        <v>363702.9648463255</v>
+        <v>406030.3179431335</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1099,40 +1099,40 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D15">
-        <v>68326.45410769606</v>
+        <v>69730.67968131734</v>
       </c>
       <c r="E15">
-        <v>73312.91476851354</v>
+        <v>74829.59392107018</v>
       </c>
       <c r="F15">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G15">
-        <v>1291838.940484392</v>
+        <v>1242686.911842048</v>
       </c>
       <c r="J15" s="1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="K15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15">
-        <v>2895.126652697997</v>
+        <v>3123.085854615022</v>
       </c>
       <c r="M15">
-        <v>18246.2900097187</v>
+        <v>24399.97637144832</v>
       </c>
       <c r="N15">
-        <v>16495.22982265726</v>
+        <v>13077.05388393195</v>
       </c>
       <c r="O15">
-        <v>34741.51983237596</v>
+        <v>37477.03025538026</v>
       </c>
       <c r="P15">
-        <v>325404.3312956409</v>
+        <v>209409.307161107</v>
       </c>
       <c r="S15" s="1">
         <v>2030</v>
@@ -1144,16 +1144,16 @@
         <v>6394.503622870813</v>
       </c>
       <c r="V15">
-        <v>65459.25156421367</v>
+        <v>64147.10361821263</v>
       </c>
       <c r="W15">
-        <v>11274.79191023609</v>
+        <v>12586.93985623714</v>
       </c>
       <c r="X15">
         <v>76734.04347444976</v>
       </c>
       <c r="Y15">
-        <v>298243.7132821119</v>
+        <v>341883.2143249209</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1164,40 +1164,40 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D16">
-        <v>72009.24998410088</v>
+        <v>74348.46308331178</v>
       </c>
       <c r="E16">
-        <v>69630.11889210872</v>
+        <v>70211.81051907573</v>
       </c>
       <c r="F16">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G16">
-        <v>1219829.690500291</v>
+        <v>1156338.448758737</v>
       </c>
       <c r="J16" s="1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="K16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L16">
-        <v>2895.126652697997</v>
+        <v>3123.085854615022</v>
       </c>
       <c r="M16">
-        <v>19122.1119301852</v>
+        <v>26336.45511440937</v>
       </c>
       <c r="N16">
-        <v>15619.40790219076</v>
+        <v>11140.57514097089</v>
       </c>
       <c r="O16">
-        <v>34741.51983237596</v>
+        <v>37477.03025538026</v>
       </c>
       <c r="P16">
-        <v>306282.2193654557</v>
+        <v>171072.8520466977</v>
       </c>
       <c r="S16" s="1">
         <v>2031</v>
@@ -1209,16 +1209,16 @@
         <v>6394.503622870813</v>
       </c>
       <c r="V16">
-        <v>67488.48836270429</v>
+        <v>66135.66383037722</v>
       </c>
       <c r="W16">
-        <v>9245.555111745467</v>
+        <v>10598.37964407255</v>
       </c>
       <c r="X16">
         <v>76734.04347444976</v>
       </c>
       <c r="Y16">
-        <v>230755.2249194076</v>
+        <v>275747.5504945437</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1229,40 +1229,40 @@
         <v>36</v>
       </c>
       <c r="C17">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D17">
-        <v>75890.54855824391</v>
+        <v>79227.15124751889</v>
       </c>
       <c r="E17">
-        <v>65748.82031796568</v>
+        <v>65333.12235486862</v>
       </c>
       <c r="F17">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G17">
-        <v>1143939.141942047</v>
+        <v>1065111.297511218</v>
       </c>
       <c r="J17" s="1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="K17">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L17">
-        <v>2895.126652697997</v>
+        <v>3123.085854615022</v>
       </c>
       <c r="M17">
-        <v>20039.97330283409</v>
+        <v>28375.95452649595</v>
       </c>
       <c r="N17">
-        <v>14701.54652954188</v>
+        <v>9101.075728884316</v>
       </c>
       <c r="O17">
-        <v>34741.51983237596</v>
+        <v>37477.03025538026</v>
       </c>
       <c r="P17">
-        <v>286242.2460626216</v>
+        <v>130696.8975202017</v>
       </c>
       <c r="S17" s="1">
         <v>2032</v>
@@ -1274,16 +1274,16 @@
         <v>6394.503622870813</v>
       </c>
       <c r="V17">
-        <v>69580.63150194813</v>
+        <v>68185.86940911891</v>
       </c>
       <c r="W17">
-        <v>7153.411972501634</v>
+        <v>8548.174065330853</v>
       </c>
       <c r="X17">
         <v>76734.04347444976</v>
       </c>
       <c r="Y17">
-        <v>161174.5934174595</v>
+        <v>207561.6810854248</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1294,40 +1294,40 @@
         <v>37</v>
       </c>
       <c r="C18">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D18">
-        <v>79981.04912553327</v>
+        <v>84381.4852930037</v>
       </c>
       <c r="E18">
-        <v>61658.31975067632</v>
+        <v>60178.78830938381</v>
       </c>
       <c r="F18">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G18">
-        <v>1063958.092816513</v>
+        <v>968729.8122182142</v>
       </c>
       <c r="J18" s="1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L18">
-        <v>2895.126652697997</v>
+        <v>3123.085854615022</v>
       </c>
       <c r="M18">
-        <v>21001.89202137012</v>
+        <v>30523.95530730553</v>
       </c>
       <c r="N18">
-        <v>13739.62781100584</v>
+        <v>6953.074948074733</v>
       </c>
       <c r="O18">
-        <v>34741.51983237596</v>
+        <v>37477.03025538026</v>
       </c>
       <c r="P18">
-        <v>265240.3540412515</v>
+        <v>88172.94221289622</v>
       </c>
       <c r="S18" s="1">
         <v>2033</v>
@@ -1339,16 +1339,16 @@
         <v>6394.503622870813</v>
       </c>
       <c r="V18">
-        <v>71737.63107850852</v>
+        <v>70299.63136080159</v>
       </c>
       <c r="W18">
-        <v>4996.412395941244</v>
+        <v>6434.412113648168</v>
       </c>
       <c r="X18">
         <v>76734.04347444976</v>
       </c>
       <c r="Y18">
-        <v>89436.96233895094</v>
+        <v>137262.0497246232</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1359,40 +1359,40 @@
         <v>38</v>
       </c>
       <c r="C19">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D19">
-        <v>84292.02767339951</v>
+        <v>89827.03921205841</v>
       </c>
       <c r="E19">
-        <v>57347.34120281008</v>
+        <v>54733.2343903291</v>
       </c>
       <c r="F19">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G19">
-        <v>979666.065143114</v>
+        <v>866902.7730061557</v>
       </c>
       <c r="J19" s="1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="K19">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L19">
-        <v>2895.126652697997</v>
+        <v>3123.085854615022</v>
       </c>
       <c r="M19">
-        <v>22009.98283839589</v>
+        <v>32786.22972965418</v>
       </c>
       <c r="N19">
-        <v>12731.53699398007</v>
+        <v>4690.800525726078</v>
       </c>
       <c r="O19">
-        <v>34741.51983237596</v>
+        <v>37477.03025538026</v>
       </c>
       <c r="P19">
-        <v>243230.3712028556</v>
+        <v>43386.71248324204</v>
       </c>
       <c r="S19" s="1">
         <v>2034</v>
@@ -1404,16 +1404,16 @@
         <v>6394.503622870813</v>
       </c>
       <c r="V19">
-        <v>73961.49764194229</v>
+        <v>72478.91993298644</v>
       </c>
       <c r="W19">
-        <v>2772.545832507479</v>
+        <v>4255.123541463319</v>
       </c>
       <c r="X19">
         <v>76734.04347444976</v>
       </c>
       <c r="Y19">
-        <v>15475.46469700865</v>
+        <v>64783.12979163678</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1424,52 +1424,52 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D20">
-        <v>88835.36796499576</v>
+        <v>95580.26692753972</v>
       </c>
       <c r="E20">
-        <v>52804.00091121384</v>
+        <v>48980.0066748478</v>
       </c>
       <c r="F20">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G20">
-        <v>890830.6971781182</v>
+        <v>759322.506078616</v>
       </c>
       <c r="J20" s="1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="K20">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L20">
-        <v>2895.126652697997</v>
+        <v>3123.085854615022</v>
       </c>
       <c r="M20">
-        <v>23066.46201463889</v>
+        <v>35168.85715127178</v>
       </c>
       <c r="N20">
-        <v>11675.05781773707</v>
+        <v>2308.173104108476</v>
       </c>
       <c r="O20">
-        <v>34741.51983237596</v>
+        <v>37477.03025538026</v>
       </c>
       <c r="P20">
-        <v>220163.9091882167</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="V20">
-        <v>754524.5353029913</v>
+        <v>705216.8702083633</v>
       </c>
       <c r="W20">
-        <v>166283.9863904058</v>
+        <v>164435.6225020675</v>
       </c>
       <c r="X20">
-        <v>920808.5216933972</v>
+        <v>869652.4927104306</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -1480,40 +1480,40 @@
         <v>40</v>
       </c>
       <c r="C21">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D21">
-        <v>93623.59429830904</v>
+        <v>101658.5520089457</v>
       </c>
       <c r="E21">
-        <v>48015.77457790057</v>
+        <v>42901.72159344181</v>
       </c>
       <c r="F21">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G21">
-        <v>797207.1028798091</v>
+        <v>645663.9540696703</v>
       </c>
       <c r="J21" s="1">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="K21">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L21">
-        <v>2895.126652697997</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>24173.65219134156</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10567.8676410344</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>34741.51983237596</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>195990.2569968752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -1524,40 +1524,40 @@
         <v>41</v>
       </c>
       <c r="C22">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D22">
-        <v>98669.90603098788</v>
+        <v>108080.2601974511</v>
       </c>
       <c r="E22">
-        <v>42969.46284522171</v>
+        <v>36480.01340493637</v>
       </c>
       <c r="F22">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G22">
-        <v>698537.1968488212</v>
+        <v>525583.6938722192</v>
       </c>
       <c r="J22" s="1">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="K22">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L22">
-        <v>2895.126652697997</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>25333.98749652595</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>9407.532335850008</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>34741.51983237596</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>170656.2695003492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -1568,40 +1568,40 @@
         <v>42</v>
       </c>
       <c r="C23">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D23">
-        <v>103988.2139660581</v>
+        <v>114864.7948986071</v>
       </c>
       <c r="E23">
-        <v>37651.15491015147</v>
+        <v>29695.47870378038</v>
       </c>
       <c r="F23">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G23">
-        <v>594548.9828827631</v>
+        <v>398718.8989736121</v>
       </c>
       <c r="J23" s="1">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="K23">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L23">
-        <v>2895.126652697997</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>26550.0188963592</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>8191.500936016762</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>34741.51983237596</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>144106.25060399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -1612,40 +1612,40 @@
         <v>43</v>
       </c>
       <c r="C24">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D24">
-        <v>109593.1786988287</v>
+        <v>122032.6558103784</v>
       </c>
       <c r="E24">
-        <v>32046.19017738094</v>
+        <v>22527.61779200908</v>
       </c>
       <c r="F24">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G24">
-        <v>484955.8041839345</v>
+        <v>264686.2431632336</v>
       </c>
       <c r="J24" s="1">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="K24">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L24">
-        <v>2895.126652697997</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>27824.41980338444</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>6917.100028991521</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>34741.51983237596</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>116281.8308006056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -1656,40 +1656,40 @@
         <v>44</v>
       </c>
       <c r="C25">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D25">
-        <v>115500.2510306955</v>
+        <v>129605.5008636648</v>
       </c>
       <c r="E25">
-        <v>26139.11784551407</v>
+        <v>14954.7727387227</v>
       </c>
       <c r="F25">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G25">
-        <v>369455.553153239</v>
+        <v>123080.7422995688</v>
       </c>
       <c r="J25" s="1">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="K25">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L25">
-        <v>2895.126652697997</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>29159.99195394689</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>5581.527878429068</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>34741.51983237596</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>87121.83884665868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -1700,40 +1700,40 @@
         <v>45</v>
       </c>
       <c r="C26">
-        <v>11803.28073968413</v>
+        <v>12046.68946686563</v>
       </c>
       <c r="D26">
-        <v>121725.71456125</v>
+        <v>137606.2116624619</v>
       </c>
       <c r="E26">
-        <v>19913.65431495958</v>
+        <v>6954.061939925638</v>
       </c>
       <c r="F26">
-        <v>141639.3688762096</v>
+        <v>144560.2736023875</v>
       </c>
       <c r="G26">
-        <v>247729.838591989</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="K26">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L26">
-        <v>2895.126652697997</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>30559.67156773635</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>4181.848264639617</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>34741.51983237596</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>56562.16727892233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -1744,40 +1744,31 @@
         <v>46</v>
       </c>
       <c r="C27">
-        <v>11803.28073968413</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>128286.7305761014</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>13352.6383001082</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>141639.3688762096</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>119443.1080158876</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2042</v>
-      </c>
-      <c r="K27">
-        <v>46</v>
-      </c>
-      <c r="L27">
-        <v>2895.126652697997</v>
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>32026.53580298769</v>
+        <v>300782.1446680298</v>
       </c>
       <c r="N27">
-        <v>2714.984029388272</v>
+        <v>183296.1627972986</v>
       </c>
       <c r="O27">
-        <v>34741.51983237596</v>
-      </c>
-      <c r="P27">
-        <v>24535.63147593464</v>
+        <v>484078.3074653284</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -1785,25 +1776,13 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>1630556.891984113</v>
+        <v>1556525.469362893</v>
       </c>
       <c r="E28">
-        <v>1202230.485540079</v>
+        <v>1093746.213347544</v>
       </c>
       <c r="F28">
-        <v>2832787.377524192</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28">
-        <v>425464.3685240654</v>
-      </c>
-      <c r="N28">
-        <v>269366.0281234538</v>
-      </c>
-      <c r="O28">
-        <v>694830.3966475191</v>
+        <v>2650271.682710438</v>
       </c>
     </row>
   </sheetData>
